--- a/inst/extdata/styles_pub.xlsx
+++ b/inst/extdata/styles_pub.xlsx
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,27 +187,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top/>
       <bottom/>
@@ -245,7 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -267,10 +255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -622,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -632,7 +621,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B1">
@@ -643,7 +632,7 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="28" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -684,7 +673,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
@@ -692,7 +681,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -700,7 +689,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B15">
@@ -708,7 +697,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B17">
@@ -716,7 +705,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B19">
@@ -738,7 +727,7 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B23">
@@ -749,7 +738,7 @@
       <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B25">
@@ -760,7 +749,7 @@
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B27">
@@ -771,7 +760,7 @@
       <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B29">
@@ -782,7 +771,7 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -804,7 +793,7 @@
       <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B35">
@@ -815,7 +804,7 @@
       <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B37">

--- a/inst/extdata/styles_pub.xlsx
+++ b/inst/extdata/styles_pub.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9760" yWindow="5280" windowWidth="36500" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,68 +91,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -202,44 +203,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -255,11 +284,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -611,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -621,7 +656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B1">
@@ -632,7 +667,7 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="28" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -673,7 +708,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11">
@@ -681,7 +716,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -689,7 +724,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B15">
@@ -697,7 +732,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B17">
@@ -705,7 +740,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B19">
@@ -716,7 +751,7 @@
       <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B21">
@@ -726,8 +761,8 @@
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2" ht="20">
+      <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B23">
@@ -737,8 +772,8 @@
     <row r="24" spans="1:2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B25">
@@ -749,7 +784,7 @@
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B27">
@@ -760,7 +795,7 @@
       <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B29">
@@ -771,7 +806,7 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B31">
@@ -782,7 +817,7 @@
       <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B33">
@@ -804,7 +839,7 @@
       <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B37">

--- a/inst/extdata/styles_pub.xlsx
+++ b/inst/extdata/styles_pub.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="5280" windowWidth="36500" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -655,195 +655,138 @@
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="28" customHeight="1">
+    <row r="3" spans="1:1" ht="28" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="27" customHeight="1">
+    <row r="7" spans="1:1" ht="27" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="20">
+    <row r="23" spans="1:1" ht="20">
       <c r="A23" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="18">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:1">
       <c r="A29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:1">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:1">
       <c r="A37" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
